--- a/departFin.xlsx
+++ b/departFin.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,8 @@
     <col min="1" max="1" customWidth="1" width="9"/>
     <col min="2" max="2" customWidth="1" width="13"/>
     <col min="3" max="3" customWidth="1" width="21"/>
+    <col min="4" max="4" customWidth="1" width="12"/>
+    <col min="5" max="5" customWidth="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,6 +397,12 @@
       <c r="C1" t="str">
         <v>医疗服务收入</v>
       </c>
+      <c r="D1" t="str">
+        <v>门诊检查收入</v>
+      </c>
+      <c r="E1" t="str">
+        <v>住院药品收入</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -406,6 +414,12 @@
       <c r="C2">
         <v>720470.5</v>
       </c>
+      <c r="D2">
+        <v>2462659.2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -417,6 +431,12 @@
       <c r="C3">
         <v>4768590.41</v>
       </c>
+      <c r="D3">
+        <v>-105.5</v>
+      </c>
+      <c r="E3">
+        <v>4711124.52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -428,6 +448,12 @@
       <c r="C4">
         <v>112342.09999999963</v>
       </c>
+      <c r="D4">
+        <v>232924.2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -439,6 +465,12 @@
       <c r="C5">
         <v>1586538.0300000003</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2082410.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -450,6 +482,12 @@
       <c r="C6">
         <v>270670.7999999998</v>
       </c>
+      <c r="D6">
+        <v>940151.12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -461,6 +499,12 @@
       <c r="C7">
         <v>4980339.969999999</v>
       </c>
+      <c r="D7">
+        <v>-325.84</v>
+      </c>
+      <c r="E7">
+        <v>6186709.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -472,6 +516,12 @@
       <c r="C8">
         <v>937349.5</v>
       </c>
+      <c r="D8">
+        <v>138623</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -483,10 +533,16 @@
       <c r="C9">
         <v>7463173.35</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1543760.11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>